--- a/biology/Histoire de la zoologie et de la botanique/Yasunori_Miyoshi/Yasunori_Miyoshi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yasunori_Miyoshi/Yasunori_Miyoshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yasunori Miyoshi (三好 保徳) est un zoologiste ichtyologiste et myriapodologiste japonais, né le 17 avril 1909 et mort le 19 avril 1995 à Yoshifuji-mura (aujourd'hui Hiromi-cho) dans le département d'Ehime au Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Miyoshi, Y., 1941a. Über eine Missbildung von Ischyropsalis abei Sato et Suzuki. Acta Arachnologica, Osaka, 6(1): 9-12. [en japonais]. 三好保徳; MIYOSHI Yasunori; Ischyropsalis abei Sato et Suzuki の一奇形
 Miyoshi, Y., 1941b. Über die Gestalt und Funktion der Gangbeine der Laniatores. Acta Arachnologica, Osaka, 6(2): 30-33. [en japonais]. 三好保徳; MIYOSHI Yasunori; 有鉤類の歩脚の機能と形態に就いて
